--- a/Java/Zadanie1_MaslovAN/table_math2.xlsx
+++ b/Java/Zadanie1_MaslovAN/table_math2.xlsx
@@ -14,13 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Id</t>
+    <t>id</t>
   </si>
   <si>
-    <t>Operation</t>
+    <t>operation</t>
   </si>
   <si>
-    <t>Result</t>
+    <t>result</t>
   </si>
   <si>
     <t>-1.0-23.0</t>
@@ -80,7 +80,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="2.41796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.02734375" customWidth="true" bestFit="true"/>
   </cols>
